--- a/01_월별_인보이스_정합성_검증/Source/Config.xlsx
+++ b/01_월별_인보이스_정합성_검증/Source/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\21_RPA_기본_강의_실습\Private_Example\01_월별_인보이스_정합성_검증\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FE999F-8327-4251-B64E-7084FD489B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B7DB16-74B5-4D25-A313-C7C4500E64D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +93,6 @@
   </si>
   <si>
     <t>File</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File_ACME_Client</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1253,6 +1249,22 @@
   </si>
   <si>
     <t>기본 시트명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File_ACME_MonthlyInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File_DownloadName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report-{Vendor}-{Month}.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 다운로드시 파일명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1758,7 +1770,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1769,7 +1781,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1790,7 +1802,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -1814,156 +1826,167 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>89</v>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1978,7 +2001,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -2002,46 +2025,46 @@
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="16.5">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="16.5">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1"/>
@@ -2092,54 +2115,54 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4">
         <v>587</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -2147,7 +2170,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -2155,57 +2178,57 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="102">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="67.5">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">

--- a/01_월별_인보이스_정합성_검증/Source/Config.xlsx
+++ b/01_월별_인보이스_정합성_검증/Source/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\21_RPA_기본_강의_실습\Private_Example\01_월별_인보이스_정합성_검증\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B7DB16-74B5-4D25-A313-C7C4500E64D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C3BCCA-A87A-4FE0-BE6B-095F96BD4C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1256,15 +1256,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>File_DownloadName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Report-{Vendor}-{Month}.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파일 다운로드시 파일명</t>
+    <t>월별 인보이스 다운로드 파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File_ACME_DownloadTmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검증 NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code_CheckNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code_CheckYes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검증 YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code_MsgNotEqual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 불일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>엑셀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 다운로드 실패</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>출력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 메시지 : 데이터 불일치</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력 메시지 : 다운로드 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code_MsgDownloadFail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1801,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D129B3-C630-4D4F-94AA-81D79A80C13C}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -1925,24 +1997,24 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2000,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169A3B5F-FDC3-4684-99BD-1A5AD34E573E}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -2067,10 +2139,50 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="4" customFormat="1"/>
-    <row r="7" spans="1:3" s="4" customFormat="1"/>
-    <row r="8" spans="1:3" s="4" customFormat="1"/>
-    <row r="9" spans="1:3" s="4" customFormat="1"/>
+    <row r="6" spans="1:3" s="4" customFormat="1">
+      <c r="A6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="4" customFormat="1">
+      <c r="A7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="4" customFormat="1">
+      <c r="A8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="4" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="10" spans="1:3" s="4" customFormat="1"/>
     <row r="11" spans="1:3" s="4" customFormat="1"/>
     <row r="12" spans="1:3" s="4" customFormat="1"/>
@@ -2091,7 +2203,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>

--- a/01_월별_인보이스_정합성_검증/Source/Config.xlsx
+++ b/01_월별_인보이스_정합성_검증/Source/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\21_RPA_기본_강의_실습\Private_Example\01_월별_인보이스_정합성_검증\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C3BCCA-A87A-4FE0-BE6B-095F96BD4C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6C7A3F-47BC-41CE-96D2-C0A0E51740F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="-6180" yWindow="-11535" windowWidth="17025" windowHeight="11385" activeTab="3" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,149 +447,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sheet_EuroZone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한국수출입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>환율조사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>엑셀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파일의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시트명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유로존</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>URL_KITA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.kita.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국무역협회 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -639,23 +501,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cell_ImportExport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.index.go.kr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>URL_NaraIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라지표 사이트로 이동하기위한 지표누리 사이트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -815,149 +665,6 @@
   </si>
   <si>
     <r>
-      <t>Excel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 확장자</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한국수출입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>환율조사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>엑셀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파일의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시트명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에 조사결과 등록할 셀 위치</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -1149,19 +856,330 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>입력 파일이 있는 폴더명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결과 파일을 저장할</t>
+    <t>ACME Invoice report 파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet_Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Report-{Vendor}-{Month}.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File_ACME_DownloadTmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검증 NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code_CheckNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code_CheckYes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검증 YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code_MsgNotEqual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 불일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>엑셀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 다운로드 실패</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>출력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 메시지 : 데이터 불일치</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력 메시지 : 다운로드 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code_MsgDownloadFail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet_DownloadFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worksheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail_Title_MonthlyInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail_Body_MonthlyInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RPA_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_인보이스_정합성_검증 결과 메일</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월별 인보이스 정합성 검증 메일 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월별 인보이스 정합성 검증 메일 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. RPA Bot입니다.
+월별_인보이스_정합성_검증 결과 메일을 송부드립니다.
+감사합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File_ACME_OutputMonthlyInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File_ACME_InputMonthlyInvoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한국무역협회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이트</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나라지표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이트로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동하기위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지표누리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이트</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
     </r>
     <r>
       <rPr>
@@ -1193,7 +1211,26 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>다운로드한 파일을</t>
+      <t>결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일을</t>
     </r>
     <r>
       <rPr>
@@ -1236,107 +1273,340 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACME Invoice report 파일명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheet_Default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheet1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 시트명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File_ACME_MonthlyInvoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Report-{Vendor}-{Month}.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월별 인보이스 다운로드 파일명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>File_ACME_DownloadTmp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검증 NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code_CheckNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code_CheckYes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검증 YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code_MsgNotEqual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 불일치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>엑셀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 다운로드 실패</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>출력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 메시지 : 데이터 불일치</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출력 메시지 : 다운로드 실패</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code_MsgDownloadFail</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다운로드한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폴더명</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인보이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정합성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_{yyyyMMdd}.xlsx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인보이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다운로드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일명</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시트명</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다운로드한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시트명</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Excel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확장자</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1462,7 +1732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1487,20 +1757,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1819,7 +2080,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -1871,17 +2132,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D129B3-C630-4D4F-94AA-81D79A80C13C}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
@@ -1920,24 +2181,24 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1953,112 +2214,112 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>82</v>
+      <c r="C7" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>83</v>
+      <c r="C8" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>91</v>
+        <v>105</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>75</v>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2072,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169A3B5F-FDC3-4684-99BD-1A5AD34E573E}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -2097,90 +2358,90 @@
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="16.5">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="16.5">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1">
       <c r="A6" s="4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1">
       <c r="A7" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1"/>
@@ -2202,8 +2463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA834E7-DDAB-489E-9801-6DDD8D246B8E}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -2301,46 +2562,68 @@
     </row>
     <row r="9" spans="1:3" ht="16.5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="102">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="67.5">
       <c r="A12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5">
+      <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="67.5">
+      <c r="A14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
